--- a/リスト.xlsx
+++ b/リスト.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Desktop\TebasakiChronicle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonari\Desktop\tebasaki\TebasakiChronicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42A0F7-97C1-4080-BAE9-6B242D53D7AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト" sheetId="5" r:id="rId1"/>
@@ -24,20 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>プレイヤー地面や天井に貫通する</t>
-    <rPh sb="5" eb="7">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テンジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>プレイヤーや敵の生成した弾が対象と接触しても消去されない</t>
     <rPh sb="6" eb="7">
@@ -211,47 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>板倉君の敵読み込みで配置した敵がボスかどうか判別できるようにしてほしい</t>
-    <rPh sb="0" eb="3">
-      <t>イタクラクン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル画面からゲーム画面に移行するときの仕様</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス戦に移行する時の仕様</t>
     <rPh sb="2" eb="3">
       <t>セン</t>
@@ -303,14 +250,205 @@
     <rPh sb="2" eb="3">
       <t>マ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面からゲーム画面に移行するときの仕様書作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板倉君の敵読み込みで配置した敵がボスかどうか判別できるようにする</t>
+    <rPh sb="0" eb="3">
+      <t>イタクラクン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが地面や天井に貫通する</t>
+    <rPh sb="6" eb="8">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス登場の演出</t>
+    <rPh sb="2" eb="4">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス戦に移行する時のイベント処理</t>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスの動作仕様</t>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板倉</t>
+    <rPh sb="0" eb="2">
+      <t>イタクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーンからゲームオーバーに移行するときの仕様</t>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎日</t>
+    <rPh sb="0" eb="2">
+      <t>マイニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンドの追加修正、デザイン、作業リストの管理</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日比野</t>
+    <rPh sb="0" eb="3">
+      <t>ヒビノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業待ち</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ中にカメラを出すと滞空する</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースリスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,13 +464,84 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -364,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +584,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,215 +932,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="72.625" customWidth="1"/>
+    <col min="1" max="1" width="72.59765625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>43295</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>43295</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>43295</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43295</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43297</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>43295</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43295</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43296</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43300</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>43294</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>43294</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>43306</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43295</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43295</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/リスト.xlsx
+++ b/リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonari\Desktop\tebasaki\TebasakiChronicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42A0F7-97C1-4080-BAE9-6B242D53D7AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AF755C-049F-4526-8922-D258048A8B64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>プレイヤーや敵の生成した弾が対象と接触しても消去されない</t>
     <rPh sb="6" eb="7">
@@ -936,19 +936,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="72.59765625" customWidth="1"/>
+    <col min="1" max="1" width="72.625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,7 +999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1009,12 +1009,14 @@
       <c r="C4" s="3">
         <v>43295</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1031,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1046,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1078,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1093,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1108,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,12 +1118,14 @@
       <c r="C11" s="3">
         <v>43294</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1129,14 +1133,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>43294</v>
+        <v>43296</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1144,12 +1148,12 @@
         <v>34</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
+      <c r="D13" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1168,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1181,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1190,7 +1194,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1209,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1220,7 +1224,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1239,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>

--- a/リスト.xlsx
+++ b/リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonari\Desktop\tebasaki\TebasakiChronicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AF755C-049F-4526-8922-D258048A8B64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B73125-4B97-4A68-BC83-02204746459A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>プレイヤーや敵の生成した弾が対象と接触しても消去されない</t>
     <rPh sb="6" eb="7">
@@ -239,16 +239,6 @@
     <t>作業中</t>
     <rPh sb="0" eb="3">
       <t>サギョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様待ち</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,7 +926,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1021,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>43295</v>
@@ -1033,10 +1023,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>43297</v>
@@ -1065,10 +1055,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>43295</v>
@@ -1083,22 +1073,24 @@
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>43296</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>43300</v>
@@ -1135,17 +1127,19 @@
       <c r="C12" s="3">
         <v>43296</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="13" t="s">
@@ -1170,100 +1164,104 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>43295</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
         <v>43295</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="E21" s="1"/>
     </row>

--- a/リスト.xlsx
+++ b/リスト.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonari\Desktop\tebasaki\TebasakiChronicle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Desktop\TebasakiChronicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B73125-4B97-4A68-BC83-02204746459A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト" sheetId="5" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>プレイヤーや敵の生成した弾が対象と接触しても消去されない</t>
     <rPh sb="6" eb="7">
@@ -430,14 +429,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスの実装</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業待ち</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>リソースリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスのリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂道のないマップ</t>
+    <rPh sb="0" eb="2">
+      <t>サカミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス登場の演出でプレイヤーを動かす</t>
+    <rPh sb="2" eb="4">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの死亡時のモーション</t>
+    <rPh sb="6" eb="9">
+      <t>シボウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージ待ち</t>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1016,10 +1077,12 @@
       <c r="C5" s="3">
         <v>43295</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1029,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="3">
-        <v>43297</v>
+        <v>43301</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>20</v>
@@ -1141,9 +1204,11 @@
       <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
+      <c r="C13" s="3">
+        <v>43297</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1166,10 +1231,12 @@
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43304</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>35</v>
       </c>
@@ -1179,10 +1246,12 @@
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43304</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>35</v>
       </c>
@@ -1252,7 +1321,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>27</v>
@@ -1261,9 +1330,82 @@
         <v>30</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43304</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43304</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43302</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43299</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/リスト.xlsx
+++ b/リスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>プレイヤーや敵の生成した弾が対象と接触しても消去されない</t>
     <rPh sb="6" eb="7">
@@ -443,21 +443,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業待ち</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リソースリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスのリソース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,9 +474,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マージ待ち</t>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスのリソース1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーとカメラガンが敵との当たり判定を失う (その際に敵の弾のプレイヤーは衝突は行える)</t>
+  </si>
+  <si>
+    <t>プレイヤーがジャンプスキルを使用した時、最小ジャンプになってしまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルボタンの配置が上下で逆になっている(コントローラー)</t>
+  </si>
+  <si>
+    <t>プレイヤーのコントローラー入力で傾きに応じてアニメーションスピードを変化させる</t>
+  </si>
+  <si>
+    <t>プレイヤーが死んだときや、自動で動いているときに宙に浮く</t>
+  </si>
+  <si>
+    <t>描画順が滅茶苦茶</t>
+  </si>
+  <si>
+    <t>タイトル画面からゲーム画面に移行するときの動作</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -624,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +693,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,15 +1012,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="72.625" customWidth="1"/>
+    <col min="1" max="1" width="92.75" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -1023,7 +1051,7 @@
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="15">
         <v>43295</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1040,7 +1068,7 @@
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>43295</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1057,7 +1085,7 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="15">
         <v>43295</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1074,7 +1102,7 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="15">
         <v>43295</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1091,13 +1119,15 @@
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="15">
         <v>43301</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -1106,7 +1136,7 @@
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="15">
         <v>43295</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1123,13 +1153,15 @@
       <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="15">
         <v>43295</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -1138,7 +1170,7 @@
       <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="15">
         <v>43296</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1170,7 +1202,7 @@
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="15">
         <v>43294</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1187,7 +1219,7 @@
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="15">
         <v>43296</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1204,13 +1236,15 @@
       <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="15">
         <v>43297</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -1234,13 +1268,15 @@
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="15">
         <v>43304</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
@@ -1249,13 +1285,15 @@
       <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="15">
         <v>43304</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
@@ -1264,7 +1302,7 @@
       <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="15">
         <v>43295</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1281,7 +1319,7 @@
       <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="15">
         <v>43295</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1321,7 +1359,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>27</v>
@@ -1341,15 +1379,17 @@
       <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
+      <c r="C22" s="3">
+        <v>43317</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>27</v>
@@ -1357,14 +1397,16 @@
       <c r="C23" s="3">
         <v>43304</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>27</v>
@@ -1379,7 +1421,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>33</v>
@@ -1387,14 +1429,16 @@
       <c r="C25" s="3">
         <v>43302</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>33</v>
@@ -1402,10 +1446,102 @@
       <c r="C26" s="3">
         <v>43299</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
